--- a/config_11.16/shoping_config_vivo.xlsx
+++ b/config_11.16/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5931" uniqueCount="2089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="2103">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -8068,6 +8068,62 @@
   </si>
   <si>
     <t>1,28,58,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时来运转</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"528万鱼币","狂暴*2","冰冻*5","锁定*8",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"fish_coin","prop_3d_fish_wild","prop_3d_fish_frozen","prop_3d_fish_lock",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>5280000,2,5,8,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>86400,1,0</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1088万鱼币","狂暴*5","冰冻*10","锁定*15",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>10880000,5,10,15,</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>时来运转</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5488万鱼币","狂暴*10","冰冻*20","锁定*30",</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>54880000,10,20,30,</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
 </sst>
@@ -11071,13 +11127,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO753"/>
+  <dimension ref="A1:AO756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="W728" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A751" sqref="A751:XFD753"/>
+      <selection pane="bottomRight" activeCell="A754" sqref="A754:XFD756"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -60100,6 +60156,201 @@
         <v>1</v>
       </c>
     </row>
+    <row r="754" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A754" s="21">
+        <v>753</v>
+      </c>
+      <c r="B754" s="30">
+        <v>10670</v>
+      </c>
+      <c r="F754" s="30">
+        <v>1</v>
+      </c>
+      <c r="G754" s="30" t="s">
+        <v>2089</v>
+      </c>
+      <c r="J754" s="30" t="s">
+        <v>2090</v>
+      </c>
+      <c r="K754" s="30" t="s">
+        <v>2091</v>
+      </c>
+      <c r="M754" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N754" s="30">
+        <v>0</v>
+      </c>
+      <c r="O754" s="30">
+        <v>0</v>
+      </c>
+      <c r="P754" s="30" t="s">
+        <v>2092</v>
+      </c>
+      <c r="Q754" s="30">
+        <v>4800</v>
+      </c>
+      <c r="R754" s="30" t="s">
+        <v>2093</v>
+      </c>
+      <c r="S754" s="54" t="s">
+        <v>2094</v>
+      </c>
+      <c r="X754" s="30" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Y754" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z754" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA754" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AI754" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ754" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM754" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN754" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="755" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A755" s="21">
+        <v>754</v>
+      </c>
+      <c r="B755" s="30">
+        <v>10671</v>
+      </c>
+      <c r="F755" s="30">
+        <v>1</v>
+      </c>
+      <c r="G755" s="30" t="s">
+        <v>2089</v>
+      </c>
+      <c r="J755" s="30" t="s">
+        <v>2096</v>
+      </c>
+      <c r="K755" s="30" t="s">
+        <v>2097</v>
+      </c>
+      <c r="M755" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N755" s="30">
+        <v>0</v>
+      </c>
+      <c r="O755" s="30">
+        <v>0</v>
+      </c>
+      <c r="P755" s="30" t="s">
+        <v>2092</v>
+      </c>
+      <c r="Q755" s="30">
+        <v>9800</v>
+      </c>
+      <c r="R755" s="30" t="s">
+        <v>2093</v>
+      </c>
+      <c r="S755" s="54" t="s">
+        <v>2098</v>
+      </c>
+      <c r="X755" s="30" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Y755" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z755" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA755" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AI755" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ755" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM755" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN755" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="756" spans="1:40" x14ac:dyDescent="0.2">
+      <c r="A756" s="21">
+        <v>755</v>
+      </c>
+      <c r="B756" s="30">
+        <v>10672</v>
+      </c>
+      <c r="F756" s="30">
+        <v>1</v>
+      </c>
+      <c r="G756" s="30" t="s">
+        <v>2099</v>
+      </c>
+      <c r="J756" s="30" t="s">
+        <v>2100</v>
+      </c>
+      <c r="K756" s="30" t="s">
+        <v>2101</v>
+      </c>
+      <c r="M756" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N756" s="30">
+        <v>0</v>
+      </c>
+      <c r="O756" s="30">
+        <v>0</v>
+      </c>
+      <c r="P756" s="30" t="s">
+        <v>2092</v>
+      </c>
+      <c r="Q756" s="30">
+        <v>49800</v>
+      </c>
+      <c r="R756" s="30" t="s">
+        <v>2093</v>
+      </c>
+      <c r="S756" s="54" t="s">
+        <v>2102</v>
+      </c>
+      <c r="X756" s="30" t="s">
+        <v>2095</v>
+      </c>
+      <c r="Y756" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z756" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA756" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AI756" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ756" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM756" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN756" s="30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="H738:H749"/>

--- a/config_11.16/shoping_config_vivo.xlsx
+++ b/config_11.16/shoping_config_vivo.xlsx
@@ -232,7 +232,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5952" uniqueCount="2103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6074" uniqueCount="2163">
   <si>
     <t>line_id|行号</t>
   </si>
@@ -6932,23 +6932,23 @@
   </si>
   <si>
     <t>首充礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>欢乐捕鱼官方，捕鱼奥秘官方</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"60万金币","250福利券门票*1","金币15-21万"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gift_bag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","prop_3d_50flq",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6964,15 +6964,15 @@
       </rPr>
       <t>00000,1,</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9999999999,1,0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -6988,7 +6988,7 @@
       </rPr>
       <t>150000,210000,100}</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7014,19 +7014,19 @@
       </rPr>
       <t>600000</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>新手礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"100万金币","2500福利券门票*1","金币40-60万"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","prop_3d_200flq",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7042,11 +7042,11 @@
       </rPr>
       <t>000000,1</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9999999999,1,0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7062,7 +7062,7 @@
       </rPr>
       <t>400000,600000,100}</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7078,19 +7078,19 @@
       </rPr>
       <t>00000,1000000</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>王者礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"480万金币","2500福利券门票*3","金币200-280万"</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gift_bag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7106,7 +7106,7 @@
       </rPr>
       <t>800000,3</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7122,7 +7122,7 @@
       </rPr>
       <t>2000000,2800000,100}</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7138,146 +7138,146 @@
       </rPr>
       <t>000000,4800000</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>{type="permission_class",class_value = "first_deposit_gift" }</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>积分加成礼包</t>
   </si>
   <si>
     <t>gun_barrel_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>shop_gold_sum</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>雷霆幻影</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3dby_icon_p1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>pay_bg_light1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gun_barrel_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>闪耀风暴</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3dby_icon_p2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gun_barrel_4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>金币使者</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3dby_icon_p3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gun_barrel_5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>核能风暴</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3dby_icon_p4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gun_barrel_6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>死灵之光</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3dby_icon_p5</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gun_barrel_7</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>神龙之力</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3dby_icon_p6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gun_bed_2</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>绿芒</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3dby_icon_xy_1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gun_bed_3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>寒霜</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3dby_icon_ss_1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gun_bed_4</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>金焰</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3dby_icon_cs_1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>绝地反击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>非冲金鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"101万金币",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gift_bag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7293,11 +7293,11 @@
       </rPr>
       <t>,1,0</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7313,7 +7313,7 @@
       </rPr>
       <t>1010000,1100000,100}</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7339,11 +7339,11 @@
       </rPr>
       <t>5000000</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"510万金币",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7359,7 +7359,7 @@
       </rPr>
       <t>5100000,5400000,100}</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7375,15 +7375,15 @@
       </rPr>
       <t>000000,10000000</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>绝地反击</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"1020万金币",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7399,7 +7399,7 @@
       </rPr>
       <t>10200000,10800000,100}</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7415,11 +7415,11 @@
       </rPr>
       <t>0000000,20000000</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"2040万金币",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7435,7 +7435,7 @@
       </rPr>
       <t>20400000,21600000,100}</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -7451,691 +7451,959 @@
       </rPr>
       <t>0000000,50000000</t>
     </r>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>抽奖礼包冲金鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>抽奖礼包非冲金鸡</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>中秋礼包</t>
   </si>
   <si>
     <t>江山如画</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>非冲金鸡福袋礼包模板</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>?</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>繁荣昌盛</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>山河壮丽</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>人杰地灵</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>物华天宝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>物华天宝</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>国泰民安</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>江山锦绣</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>86400,1,0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>冲金鸡福袋礼包模板</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>江山锦绣</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>重阳礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>回归礼遇</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gift_bag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5,1,0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>超值礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>超值礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>回归用户超值礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"180万金币","10万金币","狂暴*3","子弹加速*3",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gift_bag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gift_bag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","jing_bi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","jing_bi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1800000,100000,3,3,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>86400,1,0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"300万金币","18万金币","狂暴*4","子弹加速*4",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gift_bag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3000000,180000,4,4,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"480万金币","28万金币","狂暴*5","子弹加速*5",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","jing_bi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
   </si>
   <si>
     <t>4800000,280000,5,5,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"960万金币","56万金币","狂暴*12","子弹加速*12","30万鱼币",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","jing_bi","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9600000,560000,12,12,300000,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"480万金币","30万金币","狂暴*5","子弹加速*5",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4800000,300000,5,5,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"980万金币","60万金币","狂暴*6","子弹加速*6",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9800000,600000,6,6,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"1980万金币","128万金币","狂暴*7","子弹加速*7",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>19800000,1280000,7,7,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"3440万金币","218万金币","狂暴*18","子弹加速*18","100万鱼币",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>34400000,2180000,18,18,1000000,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"980万金币","68万金币","狂暴*8","子弹加速*8",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9800000,680000,8,8,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"1980万金币","138万金币","狂暴*9","子弹加速*9",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>19800000,1380000,9,9,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"4980万金币","348万金币","狂暴*10","子弹加速*10",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>49800000,3480000,10,10,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"7940万金币","554万金币","狂暴*27","子弹加速*27","200万鱼币",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","jing_bi","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>79400000,5540000,27,27,2000000,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>重阳礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>一键礼包类型</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"60万金币","稀有宝箱*1","狂暴*1","子弹加速*1",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>600000,1,1,1,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>86400,1,0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"100万金币","稀有宝箱*2","狂暴*2","子弹加速*2",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1000000,2,2,2,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"180万金币","稀有宝箱*3","狂暴*3","子弹加速*3",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1800000,3,3,3,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>重阳礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"340万金币","稀有宝箱*6","狂暴*6","子弹加速*6","20万鱼币",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gift_bag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3400000,6,6,6,200000,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"180万金币","稀有宝箱*1","狂暴*3","子弹加速*3",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","prop_box_xiyou","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1800000,1,3,3,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"300万金币","稀有宝箱*1","狂暴*4","子弹加速*4",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3000000,1,4,4,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"480万金币","稀有宝箱*2","狂暴*5","子弹加速*5",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4800000,2,5,5,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"960万金币","稀有宝箱*4","狂暴*12","子弹加速*12","30万鱼币",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9600000,4,12,12,300000,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"480万金币","史诗宝箱*1","狂暴*5","子弹加速*5",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4800000,1,5,5,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"980万金币","史诗宝箱*2","狂暴*6","子弹加速*6",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9800000,2,6,6,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"1980万金币","史诗宝箱*3","狂暴*7","子弹加速*7",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>19800000,3,7,7,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"3440万金币","史诗宝箱*6","狂暴*18","子弹加速*18","100万鱼币",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","prop_box_shishi","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>34400000,6,18,18,1000000,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>重阳礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"980万金币","传说宝箱*1","狂暴*8","子弹加速*8",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gift_bag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9800000,1,8,8,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"1980万金币","传说宝箱*2","狂暴*9","子弹加速*9",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>19800000,2,9,9,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"4980万金币","传说宝箱*5","狂暴*10","子弹加速*10",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>49800000,5,10,10,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"7940万金币","传说宝箱*8","狂暴*27","子弹加速*27","200万鱼币",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","prop_box_chuanshuo","prop_3d_fish_wild","prop_3d_fish_accelerate","fish_coin",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>79400000,8,27,27,2000000,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>86400,1,0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>双十一礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>赠送福利券和苹果大战道具</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"60万金币","28福利券","水滴*1",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>600000,28,1,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>双十一礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"100万金币","48福利券","水滴*2",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1000000,48,2,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"180万金币","98福利券","水滴*3",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1800000,98,3,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"180万金币","58福利券","水滴*3",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1800000,58,3,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"300万金币","98福利券","水滴*5",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>3000000,98,5,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"480万金币","168福利券","水滴*10",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4800000,168,10,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"480万金币","168福利券","太阳*1",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_2",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>4800000,168,1,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"980万金币","338福利券","太阳*2",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9800000,338,2,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9800000,338,2,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"1980万金币","668福利券","太阳*5",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"jing_bi","shop_gold_sum","prop_guess_apple_bet_2",</t>
   </si>
   <si>
     <t>19800000,688,2,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"1980万金币","668福利券","太阳*5",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>19800000,688,5,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"4980万金币","1688福利券","太阳*10",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>49800000,1688,10,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>挑战礼包</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"额外比赛次数*10","1000万金币","66福利券","锁定*10","冰冻*10","狂暴*10",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gift_bag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"prop_vip4_match","jing_bi","shop_gold_sum","prop_3d_fish_lock","prop_3d_fish_frozen","prop_3d_fish_wild",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>10,10000000,66,10,10,10,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>86400,1,1</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>幸运福袋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>幸运福袋</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>v1-v3</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"铲子*9","太阳*10","水滴*48",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gift_bag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"prop_guess_apple_bet_3","prop_guess_apple_bet_2","prop_guess_apple_bet_1",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>9,10,48,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>v4-v6</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"铲子*18","太阳*25","水滴*88",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>18,25,88,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>v7-v12</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"杀虫剂*1","铲子*28","太阳*58",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"prop_guess_apple_bet_4","prop_guess_apple_bet_3","prop_guess_apple_bet_2",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>1,28,58,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>时来运转</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>海底宝藏</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"528万鱼币","狂暴*2","冰冻*5","锁定*8",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>gift_bag</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"fish_coin","prop_3d_fish_wild","prop_3d_fish_frozen","prop_3d_fish_lock",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>5280000,2,5,8,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>86400,1,0</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>藏宝海湾</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"1088万鱼币","狂暴*5","冰冻*10","锁定*15",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>10880000,5,10,15,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>时来运转</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>深海沉船</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>"5488万鱼币","狂暴*10","冰冻*20","锁定*30",</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
   </si>
   <si>
     <t>54880000,10,20,30,</t>
-    <phoneticPr fontId="9" type="noConversion"/>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "come_back_value_gift1" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "come_back_value_gift2" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "come_back_value_gift3" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "lucky_grab_bag1" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "lucky_grab_bag2" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "lucky_grab_bag3" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "another_day_gift1" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "another_day_gift2" }</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "another_day_gift3" }</t>
+  </si>
+  <si>
+    <t>{type="permission_class",class_value = "another_day_gift4" }</t>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域V0-V2</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"100-500万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1,0</t>
+    </r>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{1010000,1100000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域V3-V5</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"500-1000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{5100000,5400000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域V6-V8</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"1000-2000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10200000,10800000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{10200000,10800000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘海域V9-V12</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"2000-5000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{20400000,21600000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏V0-V2</t>
+  </si>
+  <si>
+    <r>
+      <t>5</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>,1,0</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏V3-V5</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏V6-V8</t>
+  </si>
+  <si>
+    <t>"2000-5000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{20400000,21600000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>海底宝藏V9-V12</t>
+  </si>
+  <si>
+    <t>"3000-7500万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{30600000,32400000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾V0-V2</t>
+  </si>
+  <si>
+    <t>{10200000,10800000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾V3-V5</t>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾V6-V8</t>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>绝地反击</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>藏宝海湾V9-V12</t>
+  </si>
+  <si>
+    <t>"3000-7500万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>gift_bag</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船V0-V2</t>
+  </si>
+  <si>
+    <t>"jing_bi",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船V3-V5</t>
+  </si>
+  <si>
+    <t>{20400000,21600000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船V6-V8</t>
+  </si>
+  <si>
+    <t>"5000-12000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>"5000-12000万金币",</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>{51000000,54000000,100}</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海沉船V9-V12</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -8215,6 +8483,12 @@
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF191F25"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -8342,14 +8616,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="98">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -8409,118 +8683,118 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="13" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8532,109 +8806,112 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="8" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="4" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="3" fillId="10" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="14" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -9090,7 +9367,7 @@
       <c r="C11" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -11118,7 +11395,7 @@
       <c r="E32" s="59"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -11127,13 +11404,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO756"/>
+  <dimension ref="A1:AO772"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="7" ySplit="1" topLeftCell="W728" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="A754" sqref="A754:XFD756"/>
+      <selection pane="bottomRight" activeCell="A757" sqref="A757:XFD772"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="13.5" x14ac:dyDescent="0.2"/>
@@ -60351,6 +60628,1112 @@
         <v>1</v>
       </c>
     </row>
+    <row r="757" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A757" s="21">
+        <v>756</v>
+      </c>
+      <c r="B757" s="30">
+        <v>10673</v>
+      </c>
+      <c r="F757" s="30">
+        <v>1</v>
+      </c>
+      <c r="G757" s="30" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J757" s="30" t="s">
+        <v>2114</v>
+      </c>
+      <c r="K757" s="30" t="s">
+        <v>2115</v>
+      </c>
+      <c r="M757" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N757" s="30">
+        <v>0</v>
+      </c>
+      <c r="O757" s="30">
+        <v>0</v>
+      </c>
+      <c r="P757" s="30" t="s">
+        <v>2116</v>
+      </c>
+      <c r="Q757" s="30">
+        <v>1000</v>
+      </c>
+      <c r="S757" s="54"/>
+      <c r="X757" s="30" t="s">
+        <v>2117</v>
+      </c>
+      <c r="Y757" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z757" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA757" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB757" s="14">
+        <v>92</v>
+      </c>
+      <c r="AC757" s="30" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AD757" s="30" t="s">
+        <v>2119</v>
+      </c>
+      <c r="AI757" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ757" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM757" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN757" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="758" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A758" s="21">
+        <v>757</v>
+      </c>
+      <c r="B758" s="30">
+        <v>10674</v>
+      </c>
+      <c r="F758" s="30">
+        <v>1</v>
+      </c>
+      <c r="G758" s="30" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J758" s="30" t="s">
+        <v>2120</v>
+      </c>
+      <c r="K758" s="30" t="s">
+        <v>2121</v>
+      </c>
+      <c r="M758" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N758" s="30">
+        <v>0</v>
+      </c>
+      <c r="O758" s="30">
+        <v>0</v>
+      </c>
+      <c r="P758" s="30" t="s">
+        <v>2116</v>
+      </c>
+      <c r="Q758" s="30">
+        <v>5000</v>
+      </c>
+      <c r="S758" s="54"/>
+      <c r="X758" s="30" t="s">
+        <v>2117</v>
+      </c>
+      <c r="Y758" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z758" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA758" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB758" s="14">
+        <v>93</v>
+      </c>
+      <c r="AC758" s="30" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AD758" s="30" t="s">
+        <v>2122</v>
+      </c>
+      <c r="AI758" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ758" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM758" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN758" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="759" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A759" s="21">
+        <v>758</v>
+      </c>
+      <c r="B759" s="30">
+        <v>10675</v>
+      </c>
+      <c r="F759" s="30">
+        <v>1</v>
+      </c>
+      <c r="G759" s="30" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J759" s="30" t="s">
+        <v>2123</v>
+      </c>
+      <c r="K759" s="30" t="s">
+        <v>2124</v>
+      </c>
+      <c r="M759" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N759" s="30">
+        <v>0</v>
+      </c>
+      <c r="O759" s="30">
+        <v>0</v>
+      </c>
+      <c r="P759" s="30" t="s">
+        <v>2116</v>
+      </c>
+      <c r="Q759" s="30">
+        <v>9800</v>
+      </c>
+      <c r="S759" s="54"/>
+      <c r="X759" s="30" t="s">
+        <v>2117</v>
+      </c>
+      <c r="Y759" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z759" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA759" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB759" s="14">
+        <v>94</v>
+      </c>
+      <c r="AC759" s="30" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AD759" s="30" t="s">
+        <v>2126</v>
+      </c>
+      <c r="AI759" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ759" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM759" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN759" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="760" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A760" s="21">
+        <v>759</v>
+      </c>
+      <c r="B760" s="30">
+        <v>10676</v>
+      </c>
+      <c r="F760" s="30">
+        <v>1</v>
+      </c>
+      <c r="G760" s="30" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J760" s="30" t="s">
+        <v>2127</v>
+      </c>
+      <c r="K760" s="30" t="s">
+        <v>2128</v>
+      </c>
+      <c r="M760" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N760" s="30">
+        <v>0</v>
+      </c>
+      <c r="O760" s="30">
+        <v>0</v>
+      </c>
+      <c r="P760" s="30" t="s">
+        <v>2116</v>
+      </c>
+      <c r="Q760" s="30">
+        <v>19800</v>
+      </c>
+      <c r="S760" s="54"/>
+      <c r="X760" s="30" t="s">
+        <v>2117</v>
+      </c>
+      <c r="Y760" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z760" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA760" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB760" s="14">
+        <v>95</v>
+      </c>
+      <c r="AC760" s="30" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AD760" s="30" t="s">
+        <v>2129</v>
+      </c>
+      <c r="AI760" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ760" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM760" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN760" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="761" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A761" s="21">
+        <v>760</v>
+      </c>
+      <c r="B761" s="30">
+        <v>10677</v>
+      </c>
+      <c r="F761" s="30">
+        <v>1</v>
+      </c>
+      <c r="G761" s="30" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J761" s="30" t="s">
+        <v>2130</v>
+      </c>
+      <c r="K761" s="30" t="s">
+        <v>2121</v>
+      </c>
+      <c r="M761" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N761" s="30">
+        <v>0</v>
+      </c>
+      <c r="O761" s="30">
+        <v>0</v>
+      </c>
+      <c r="P761" s="30" t="s">
+        <v>2116</v>
+      </c>
+      <c r="Q761" s="30">
+        <v>5000</v>
+      </c>
+      <c r="S761" s="54"/>
+      <c r="X761" s="30" t="s">
+        <v>2131</v>
+      </c>
+      <c r="Y761" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z761" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA761" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB761" s="14">
+        <v>92</v>
+      </c>
+      <c r="AC761" s="30" t="s">
+        <v>2132</v>
+      </c>
+      <c r="AD761" s="30" t="s">
+        <v>2122</v>
+      </c>
+      <c r="AI761" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ761" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM761" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN761" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="762" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A762" s="21">
+        <v>761</v>
+      </c>
+      <c r="B762" s="30">
+        <v>10678</v>
+      </c>
+      <c r="F762" s="30">
+        <v>1</v>
+      </c>
+      <c r="G762" s="30" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J762" s="30" t="s">
+        <v>2134</v>
+      </c>
+      <c r="K762" s="30" t="s">
+        <v>2124</v>
+      </c>
+      <c r="M762" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N762" s="30">
+        <v>0</v>
+      </c>
+      <c r="O762" s="30">
+        <v>0</v>
+      </c>
+      <c r="P762" s="30" t="s">
+        <v>2135</v>
+      </c>
+      <c r="Q762" s="30">
+        <v>9800</v>
+      </c>
+      <c r="S762" s="54"/>
+      <c r="X762" s="30" t="s">
+        <v>2131</v>
+      </c>
+      <c r="Y762" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z762" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA762" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB762" s="14">
+        <v>93</v>
+      </c>
+      <c r="AC762" s="30" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AD762" s="30" t="s">
+        <v>2126</v>
+      </c>
+      <c r="AI762" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ762" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM762" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN762" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="763" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A763" s="21">
+        <v>762</v>
+      </c>
+      <c r="B763" s="30">
+        <v>10679</v>
+      </c>
+      <c r="F763" s="30">
+        <v>1</v>
+      </c>
+      <c r="G763" s="30" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J763" s="30" t="s">
+        <v>2136</v>
+      </c>
+      <c r="K763" s="30" t="s">
+        <v>2128</v>
+      </c>
+      <c r="M763" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N763" s="30">
+        <v>0</v>
+      </c>
+      <c r="O763" s="30">
+        <v>0</v>
+      </c>
+      <c r="P763" s="30" t="s">
+        <v>2116</v>
+      </c>
+      <c r="Q763" s="30">
+        <v>19800</v>
+      </c>
+      <c r="R763" s="97"/>
+      <c r="S763" s="54"/>
+      <c r="X763" s="30" t="s">
+        <v>2131</v>
+      </c>
+      <c r="Y763" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z763" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA763" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB763" s="14">
+        <v>94</v>
+      </c>
+      <c r="AC763" s="30" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AD763" s="30" t="s">
+        <v>2129</v>
+      </c>
+      <c r="AI763" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ763" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM763" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN763" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="764" spans="1:40" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A764" s="21">
+        <v>763</v>
+      </c>
+      <c r="B764" s="30">
+        <v>10680</v>
+      </c>
+      <c r="F764" s="30">
+        <v>1</v>
+      </c>
+      <c r="G764" s="30" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J764" s="30" t="s">
+        <v>2140</v>
+      </c>
+      <c r="K764" s="30" t="s">
+        <v>2141</v>
+      </c>
+      <c r="M764" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N764" s="30">
+        <v>0</v>
+      </c>
+      <c r="O764" s="30">
+        <v>0</v>
+      </c>
+      <c r="P764" s="30" t="s">
+        <v>1966</v>
+      </c>
+      <c r="Q764" s="30">
+        <v>29800</v>
+      </c>
+      <c r="R764" s="97"/>
+      <c r="S764" s="54"/>
+      <c r="X764" s="30" t="s">
+        <v>2131</v>
+      </c>
+      <c r="Y764" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z764" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA764" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB764" s="14">
+        <v>95</v>
+      </c>
+      <c r="AC764" s="30" t="s">
+        <v>2142</v>
+      </c>
+      <c r="AD764" s="30" t="s">
+        <v>2143</v>
+      </c>
+      <c r="AI764" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ764" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM764" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN764" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="765" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A765" s="21">
+        <v>764</v>
+      </c>
+      <c r="B765" s="30">
+        <v>10681</v>
+      </c>
+      <c r="F765" s="30">
+        <v>1</v>
+      </c>
+      <c r="G765" s="30" t="s">
+        <v>2113</v>
+      </c>
+      <c r="J765" s="30" t="s">
+        <v>2144</v>
+      </c>
+      <c r="K765" s="30" t="s">
+        <v>2124</v>
+      </c>
+      <c r="M765" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N765" s="30">
+        <v>0</v>
+      </c>
+      <c r="O765" s="30">
+        <v>0</v>
+      </c>
+      <c r="P765" s="30" t="s">
+        <v>1966</v>
+      </c>
+      <c r="Q765" s="30">
+        <v>9800</v>
+      </c>
+      <c r="S765" s="54"/>
+      <c r="X765" s="30" t="s">
+        <v>2131</v>
+      </c>
+      <c r="Y765" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z765" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA765" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB765" s="14">
+        <v>92</v>
+      </c>
+      <c r="AC765" s="30" t="s">
+        <v>2118</v>
+      </c>
+      <c r="AD765" s="30" t="s">
+        <v>2145</v>
+      </c>
+      <c r="AI765" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ765" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM765" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN765" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="766" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A766" s="21">
+        <v>765</v>
+      </c>
+      <c r="B766" s="30">
+        <v>10682</v>
+      </c>
+      <c r="F766" s="30">
+        <v>1</v>
+      </c>
+      <c r="G766" s="30" t="s">
+        <v>2133</v>
+      </c>
+      <c r="J766" s="30" t="s">
+        <v>2146</v>
+      </c>
+      <c r="K766" s="30" t="s">
+        <v>2124</v>
+      </c>
+      <c r="M766" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N766" s="30">
+        <v>0</v>
+      </c>
+      <c r="O766" s="30">
+        <v>0</v>
+      </c>
+      <c r="P766" s="30" t="s">
+        <v>1966</v>
+      </c>
+      <c r="Q766" s="30">
+        <v>9800</v>
+      </c>
+      <c r="S766" s="54"/>
+      <c r="X766" s="30" t="s">
+        <v>2131</v>
+      </c>
+      <c r="Y766" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z766" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA766" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB766" s="14">
+        <v>93</v>
+      </c>
+      <c r="AC766" s="30" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AD766" s="30" t="s">
+        <v>2125</v>
+      </c>
+      <c r="AI766" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ766" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM766" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN766" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="767" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A767" s="21">
+        <v>766</v>
+      </c>
+      <c r="B767" s="30">
+        <v>10683</v>
+      </c>
+      <c r="F767" s="30">
+        <v>1</v>
+      </c>
+      <c r="G767" s="30" t="s">
+        <v>2147</v>
+      </c>
+      <c r="J767" s="30" t="s">
+        <v>2148</v>
+      </c>
+      <c r="K767" s="30" t="s">
+        <v>2128</v>
+      </c>
+      <c r="M767" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N767" s="30">
+        <v>0</v>
+      </c>
+      <c r="O767" s="30">
+        <v>0</v>
+      </c>
+      <c r="P767" s="30" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Q767" s="30">
+        <v>19800</v>
+      </c>
+      <c r="S767" s="54"/>
+      <c r="X767" s="30" t="s">
+        <v>2131</v>
+      </c>
+      <c r="Y767" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z767" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA767" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB767" s="14">
+        <v>94</v>
+      </c>
+      <c r="AC767" s="30" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AD767" s="30" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AI767" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ767" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM767" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN767" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="768" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A768" s="21">
+        <v>767</v>
+      </c>
+      <c r="B768" s="30">
+        <v>10684</v>
+      </c>
+      <c r="F768" s="30">
+        <v>1</v>
+      </c>
+      <c r="G768" s="30" t="s">
+        <v>2150</v>
+      </c>
+      <c r="J768" s="30" t="s">
+        <v>2151</v>
+      </c>
+      <c r="K768" s="30" t="s">
+        <v>2152</v>
+      </c>
+      <c r="M768" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N768" s="30">
+        <v>0</v>
+      </c>
+      <c r="O768" s="30">
+        <v>0</v>
+      </c>
+      <c r="P768" s="30" t="s">
+        <v>2153</v>
+      </c>
+      <c r="Q768" s="30">
+        <v>29800</v>
+      </c>
+      <c r="S768" s="54"/>
+      <c r="X768" s="30" t="s">
+        <v>2131</v>
+      </c>
+      <c r="Y768" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z768" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA768" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB768" s="14">
+        <v>95</v>
+      </c>
+      <c r="AC768" s="30" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AD768" s="30" t="s">
+        <v>2143</v>
+      </c>
+      <c r="AI768" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ768" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM768" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN768" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="769" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A769" s="21">
+        <v>768</v>
+      </c>
+      <c r="B769" s="30">
+        <v>10685</v>
+      </c>
+      <c r="F769" s="30">
+        <v>1</v>
+      </c>
+      <c r="G769" s="30" t="s">
+        <v>2150</v>
+      </c>
+      <c r="J769" s="30" t="s">
+        <v>2154</v>
+      </c>
+      <c r="K769" s="30" t="s">
+        <v>2137</v>
+      </c>
+      <c r="M769" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N769" s="30">
+        <v>0</v>
+      </c>
+      <c r="O769" s="30">
+        <v>0</v>
+      </c>
+      <c r="P769" s="30" t="s">
+        <v>2153</v>
+      </c>
+      <c r="Q769" s="30">
+        <v>19800</v>
+      </c>
+      <c r="S769" s="54"/>
+      <c r="X769" s="30" t="s">
+        <v>2131</v>
+      </c>
+      <c r="Y769" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z769" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA769" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB769" s="14">
+        <v>92</v>
+      </c>
+      <c r="AC769" s="30" t="s">
+        <v>2155</v>
+      </c>
+      <c r="AD769" s="30" t="s">
+        <v>2139</v>
+      </c>
+      <c r="AI769" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ769" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM769" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN769" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="770" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A770" s="21">
+        <v>769</v>
+      </c>
+      <c r="B770" s="30">
+        <v>10686</v>
+      </c>
+      <c r="F770" s="30">
+        <v>1</v>
+      </c>
+      <c r="G770" s="30" t="s">
+        <v>2150</v>
+      </c>
+      <c r="J770" s="30" t="s">
+        <v>2156</v>
+      </c>
+      <c r="K770" s="30" t="s">
+        <v>2137</v>
+      </c>
+      <c r="M770" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N770" s="30">
+        <v>0</v>
+      </c>
+      <c r="O770" s="30">
+        <v>0</v>
+      </c>
+      <c r="P770" s="30" t="s">
+        <v>1966</v>
+      </c>
+      <c r="Q770" s="30">
+        <v>19800</v>
+      </c>
+      <c r="S770" s="54"/>
+      <c r="X770" s="30" t="s">
+        <v>2131</v>
+      </c>
+      <c r="Y770" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z770" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA770" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB770" s="14">
+        <v>93</v>
+      </c>
+      <c r="AC770" s="30" t="s">
+        <v>2138</v>
+      </c>
+      <c r="AD770" s="30" t="s">
+        <v>2157</v>
+      </c>
+      <c r="AI770" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ770" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM770" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN770" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="771" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A771" s="21">
+        <v>770</v>
+      </c>
+      <c r="B771" s="30">
+        <v>10687</v>
+      </c>
+      <c r="F771" s="30">
+        <v>1</v>
+      </c>
+      <c r="G771" s="30" t="s">
+        <v>2150</v>
+      </c>
+      <c r="J771" s="30" t="s">
+        <v>2158</v>
+      </c>
+      <c r="K771" s="30" t="s">
+        <v>2160</v>
+      </c>
+      <c r="M771" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N771" s="30">
+        <v>0</v>
+      </c>
+      <c r="O771" s="30">
+        <v>0</v>
+      </c>
+      <c r="P771" s="30" t="s">
+        <v>2149</v>
+      </c>
+      <c r="Q771" s="30">
+        <v>49800</v>
+      </c>
+      <c r="S771" s="54"/>
+      <c r="X771" s="30" t="s">
+        <v>2131</v>
+      </c>
+      <c r="Y771" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z771" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA771" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB771" s="14">
+        <v>94</v>
+      </c>
+      <c r="AC771" s="30" t="s">
+        <v>2142</v>
+      </c>
+      <c r="AD771" s="30" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AI771" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ771" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM771" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN771" s="30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="772" spans="1:40" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A772" s="21">
+        <v>771</v>
+      </c>
+      <c r="B772" s="30">
+        <v>10688</v>
+      </c>
+      <c r="F772" s="30">
+        <v>1</v>
+      </c>
+      <c r="G772" s="30" t="s">
+        <v>2150</v>
+      </c>
+      <c r="J772" s="30" t="s">
+        <v>2162</v>
+      </c>
+      <c r="K772" s="30" t="s">
+        <v>2159</v>
+      </c>
+      <c r="M772" s="30">
+        <v>-31</v>
+      </c>
+      <c r="N772" s="30">
+        <v>0</v>
+      </c>
+      <c r="O772" s="30">
+        <v>0</v>
+      </c>
+      <c r="P772" s="30" t="s">
+        <v>1966</v>
+      </c>
+      <c r="Q772" s="30">
+        <v>49800</v>
+      </c>
+      <c r="S772" s="54"/>
+      <c r="X772" s="30" t="s">
+        <v>2131</v>
+      </c>
+      <c r="Y772" s="30">
+        <v>99999999</v>
+      </c>
+      <c r="Z772" s="30">
+        <v>0</v>
+      </c>
+      <c r="AA772" s="30">
+        <v>2552233600</v>
+      </c>
+      <c r="AB772" s="14">
+        <v>95</v>
+      </c>
+      <c r="AC772" s="30" t="s">
+        <v>2155</v>
+      </c>
+      <c r="AD772" s="30" t="s">
+        <v>2161</v>
+      </c>
+      <c r="AI772" s="30">
+        <v>1</v>
+      </c>
+      <c r="AJ772" s="30">
+        <v>1</v>
+      </c>
+      <c r="AM772" s="30">
+        <v>1</v>
+      </c>
+      <c r="AN772" s="30">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="H738:H749"/>
@@ -60361,7 +61744,7 @@
     <mergeCell ref="H698:H704"/>
     <mergeCell ref="H709:H724"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
@@ -60370,10 +61753,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
     <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A86" sqref="A86:XFD86"/>
+      <selection activeCell="A87" sqref="A87:XFD96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -61593,8 +62976,148 @@
         <v>0</v>
       </c>
     </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="73" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="73" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="73" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="73" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C90">
+        <v>1</v>
+      </c>
+      <c r="D90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="73" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" s="73" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" s="73" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="73" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95">
+        <v>94</v>
+      </c>
+      <c r="B95" s="73" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C95">
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96">
+        <v>95</v>
+      </c>
+      <c r="B96" s="73" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
@@ -63386,7 +64909,7 @@
     <row r="26" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
     <row r="27" spans="1:29" s="12" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
@@ -64820,7 +66343,7 @@
       <c r="X30" s="2"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
